--- a/2024/shuffle-architecute/Teste10/content/results/metrics_2_0.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_2_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,667 +488,926 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_17</t>
+          <t>model_2_0_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8459151721977796</v>
+        <v>0.8420336853406529</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7632916810000694</v>
+        <v>0.7662197975110688</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.9122236154813768</v>
+        <v>-24.74740638015801</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09237385692411515</v>
+        <v>0.8067819740539206</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.02938826306646325</v>
+        <v>0.5598679298724335</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6466609239578247</v>
+        <v>0.6629508137702942</v>
       </c>
       <c r="H2" t="n">
-        <v>1.582869648933411</v>
+        <v>1.563289403915405</v>
       </c>
       <c r="I2" t="n">
-        <v>1.074151039123535</v>
+        <v>2.410690546035767</v>
       </c>
       <c r="J2" t="n">
-        <v>2.931040525436401</v>
+        <v>1.727641701698303</v>
       </c>
       <c r="K2" t="n">
-        <v>2.002595901489258</v>
+        <v>2.069166421890259</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_16</t>
+          <t>model_2_0_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8476482443904958</v>
+        <v>0.8428343351544976</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7626275515075982</v>
+        <v>0.7660224812258436</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.8863717754282883</v>
+        <v>-24.61405290074831</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1046025042374702</v>
+        <v>0.8078683896388161</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.01550634299232501</v>
+        <v>0.562229084556724</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6393876671791077</v>
+        <v>0.6595906615257263</v>
       </c>
       <c r="H3" t="n">
-        <v>1.587310791015625</v>
+        <v>1.564608812332153</v>
       </c>
       <c r="I3" t="n">
-        <v>1.059629440307617</v>
+        <v>2.398204803466797</v>
       </c>
       <c r="J3" t="n">
-        <v>2.891550064086914</v>
+        <v>1.717927575111389</v>
       </c>
       <c r="K3" t="n">
-        <v>1.975589752197266</v>
+        <v>2.058066129684448</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_15</t>
+          <t>model_2_0_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8495073071038064</v>
+        <v>0.8437118393868346</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7618545061095277</v>
+        <v>0.7657960848023235</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8578980014130044</v>
+        <v>-24.46652231835217</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1180204581370843</v>
+        <v>0.8090634305126662</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.000258588272407545</v>
+        <v>0.564834640006632</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6315855979919434</v>
+        <v>0.6559078693389893</v>
       </c>
       <c r="H4" t="n">
-        <v>1.592480063438416</v>
+        <v>1.566122770309448</v>
       </c>
       <c r="I4" t="n">
-        <v>1.04363489151001</v>
+        <v>2.384391784667969</v>
       </c>
       <c r="J4" t="n">
-        <v>2.848219156265259</v>
+        <v>1.707242250442505</v>
       </c>
       <c r="K4" t="n">
-        <v>1.945926427841187</v>
+        <v>2.045816898345947</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_14</t>
+          <t>model_2_0_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8514906015617314</v>
+        <v>0.8446719950245345</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7609522244616196</v>
+        <v>0.7655357823238023</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.8265687535259785</v>
+        <v>-24.30339802081989</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1327190285792793</v>
+        <v>0.8103764084323002</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01646385068493905</v>
+        <v>0.5677076195759954</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6232621073722839</v>
+        <v>0.6518783569335938</v>
       </c>
       <c r="H5" t="n">
-        <v>1.598513603210449</v>
+        <v>1.567863464355469</v>
       </c>
       <c r="I5" t="n">
-        <v>1.026036262512207</v>
+        <v>2.369118690490723</v>
       </c>
       <c r="J5" t="n">
-        <v>2.800751924514771</v>
+        <v>1.695502281188965</v>
       </c>
       <c r="K5" t="n">
-        <v>1.913394212722778</v>
+        <v>2.032310247421265</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_13</t>
+          <t>model_2_0_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8535923688240512</v>
+        <v>0.8457204304413691</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7598961844605731</v>
+        <v>0.7652356274097739</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.7921483763037482</v>
+        <v>-24.12311164454863</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1487910989946224</v>
+        <v>0.811816807640781</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03477279635289121</v>
+        <v>0.5708725537747007</v>
       </c>
       <c r="G6" t="n">
-        <v>0.614441454410553</v>
+        <v>0.6474783420562744</v>
       </c>
       <c r="H6" t="n">
-        <v>1.605575323104858</v>
+        <v>1.569870471954346</v>
       </c>
       <c r="I6" t="n">
-        <v>1.006701350212097</v>
+        <v>2.352238655090332</v>
       </c>
       <c r="J6" t="n">
-        <v>2.748849868774414</v>
+        <v>1.682623147964478</v>
       </c>
       <c r="K6" t="n">
-        <v>1.877775549888611</v>
+        <v>2.017431020736694</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_12</t>
+          <t>model_2_0_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8558017295466581</v>
+        <v>0.8468626761805358</v>
       </c>
       <c r="C7" t="n">
-        <v>0.758656845021934</v>
+        <v>0.7648887085912179</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.7543850359324511</v>
+        <v>-23.9240160456845</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1663274233170113</v>
+        <v>0.8133946225487887</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05477966285229918</v>
+        <v>0.5743556702480015</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6051692366600037</v>
+        <v>0.6426845788955688</v>
       </c>
       <c r="H7" t="n">
-        <v>1.613862752914429</v>
+        <v>1.572190284729004</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9854886531829834</v>
+        <v>2.333597660064697</v>
       </c>
       <c r="J7" t="n">
-        <v>2.692218780517578</v>
+        <v>1.668515205383301</v>
       </c>
       <c r="K7" t="n">
-        <v>1.838853716850281</v>
+        <v>2.00105619430542</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_11</t>
+          <t>model_2_0_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8581007243262337</v>
+        <v>0.8481037040124468</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7571984015453108</v>
+        <v>0.764486640531591</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7130278038430822</v>
+        <v>-23.70428829696512</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1854142842294821</v>
+        <v>0.8151196007117046</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07659243615512346</v>
+        <v>0.5781839310033325</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5955209136009216</v>
+        <v>0.6374762058258057</v>
       </c>
       <c r="H8" t="n">
-        <v>1.623615503311157</v>
+        <v>1.574878931045532</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9622570872306824</v>
+        <v>2.313024759292603</v>
       </c>
       <c r="J8" t="n">
-        <v>2.630580902099609</v>
+        <v>1.653091549873352</v>
       </c>
       <c r="K8" t="n">
-        <v>1.7964186668396</v>
+        <v>1.983058452606201</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_10</t>
+          <t>model_2_0_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8604623633074756</v>
+        <v>0.8494479585690127</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7554774969534442</v>
+        <v>0.7640193214136626</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6678300671303059</v>
+        <v>-23.46200401171394</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2061301178081667</v>
+        <v>0.8170015217656834</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1003113825552158</v>
+        <v>0.5823862136894256</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5856096148490906</v>
+        <v>0.6318347454071045</v>
       </c>
       <c r="H9" t="n">
-        <v>1.635123133659363</v>
+        <v>1.578003883361816</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9368681907653809</v>
+        <v>2.290340185165405</v>
       </c>
       <c r="J9" t="n">
-        <v>2.563682079315186</v>
+        <v>1.636264443397522</v>
       </c>
       <c r="K9" t="n">
-        <v>1.750275254249573</v>
+        <v>1.963302612304688</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_9</t>
+          <t>model_2_0_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8628476886761607</v>
+        <v>0.8508987679926717</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7534416315107434</v>
+        <v>0.7634747017442859</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.6185554855941655</v>
+        <v>-23.1950667599184</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2285383959738364</v>
+        <v>0.8190496299729407</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1260237747956419</v>
+        <v>0.5869920960456382</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5755988955497742</v>
+        <v>0.625745952129364</v>
       </c>
       <c r="H10" t="n">
-        <v>1.648736953735352</v>
+        <v>1.581645727157593</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9091892242431641</v>
+        <v>2.265347242355347</v>
       </c>
       <c r="J10" t="n">
-        <v>2.491317987442017</v>
+        <v>1.617951512336731</v>
       </c>
       <c r="K10" t="n">
-        <v>1.70025372505188</v>
+        <v>1.941649317741394</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_8</t>
+          <t>model_2_0_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8652027146569672</v>
+        <v>0.85245765349448</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7510268348343005</v>
+        <v>0.7628381824415698</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.5649930526270497</v>
+        <v>-22.90128955406529</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2526841334713631</v>
+        <v>0.8212718367853974</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1537972655588435</v>
+        <v>0.5920306930462739</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5657153129577637</v>
+        <v>0.6192036271095276</v>
       </c>
       <c r="H11" t="n">
-        <v>1.664884686470032</v>
+        <v>1.585902214050293</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8791016936302185</v>
+        <v>2.237841129302979</v>
       </c>
       <c r="J11" t="n">
-        <v>2.413342952728271</v>
+        <v>1.598081827163696</v>
       </c>
       <c r="K11" t="n">
-        <v>1.646222591400146</v>
+        <v>1.917961597442627</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_7</t>
+          <t>model_2_0_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8674538572321256</v>
+        <v>0.8541242449562498</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7481554094031269</v>
+        <v>0.7620921812447575</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.5069698449077475</v>
+        <v>-22.57837232912965</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2785826197638325</v>
+        <v>0.8236753653765724</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1836695867433223</v>
+        <v>0.5975319612007171</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5562677979469299</v>
+        <v>0.6122093200683594</v>
       </c>
       <c r="H12" t="n">
-        <v>1.684085965156555</v>
+        <v>1.590890645980835</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8465083837509155</v>
+        <v>2.20760703086853</v>
       </c>
       <c r="J12" t="n">
-        <v>2.329707622528076</v>
+        <v>1.576590895652771</v>
       </c>
       <c r="K12" t="n">
-        <v>1.58810830116272</v>
+        <v>1.892098665237427</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_6</t>
+          <t>model_2_0_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8695023878974414</v>
+        <v>0.8558949332004206</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7447326955355359</v>
+        <v>0.7612152338182093</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4443787310180765</v>
+        <v>-22.22388284433204</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3062087623206092</v>
+        <v>0.8262644574912655</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2156353537712704</v>
+        <v>0.6035239568289695</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5476705431938171</v>
+        <v>0.6047781109809875</v>
       </c>
       <c r="H13" t="n">
-        <v>1.706973791122437</v>
+        <v>1.596754789352417</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8113491535186768</v>
+        <v>2.174416780471802</v>
       </c>
       <c r="J13" t="n">
-        <v>2.240493297576904</v>
+        <v>1.553440690040588</v>
       </c>
       <c r="K13" t="n">
-        <v>1.52592134475708</v>
+        <v>1.863929033279419</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_5</t>
+          <t>model_2_0_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8712181422813434</v>
+        <v>0.8577620604225837</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7406432027095311</v>
+        <v>0.7601814369051778</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3772099339819848</v>
+        <v>-21.83535249265597</v>
       </c>
       <c r="E14" t="n">
-        <v>0.335487131278086</v>
+        <v>0.8290401217989751</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2496332498840782</v>
+        <v>0.6100325365322157</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5404698848724365</v>
+        <v>0.596942126750946</v>
       </c>
       <c r="H14" t="n">
-        <v>1.734320163726807</v>
+        <v>1.603667855262756</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7736184597015381</v>
+        <v>2.138039112091064</v>
       </c>
       <c r="J14" t="n">
-        <v>2.145943403244019</v>
+        <v>1.528622388839722</v>
       </c>
       <c r="K14" t="n">
-        <v>1.459781050682068</v>
+        <v>1.833330631256104</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_4</t>
+          <t>model_2_0_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8724305398666882</v>
+        <v>0.8597125073155846</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7357459441789642</v>
+        <v>0.7589592312702766</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.3055883966563053</v>
+        <v>-21.41024502747551</v>
       </c>
       <c r="E15" t="n">
-        <v>0.366271213573973</v>
+        <v>0.8319989798193372</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2855237862597862</v>
+        <v>0.6170793848945013</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5353817343711853</v>
+        <v>0.5887566208839417</v>
       </c>
       <c r="H15" t="n">
-        <v>1.767068147659302</v>
+        <v>1.611840724945068</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7333866357803345</v>
+        <v>2.098237037658691</v>
       </c>
       <c r="J15" t="n">
-        <v>2.046530723571777</v>
+        <v>1.502166032791138</v>
       </c>
       <c r="K15" t="n">
-        <v>1.389958739280701</v>
+        <v>1.800201654434204</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_3</t>
+          <t>model_2_0_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8729184723686598</v>
+        <v>0.8617260701959403</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7298685424504145</v>
+        <v>0.7575101470045976</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2298303690675989</v>
+        <v>-20.94608181519675</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3983261554878309</v>
+        <v>0.8351314298186659</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3230662651134472</v>
+        <v>0.6246803119986268</v>
       </c>
       <c r="G16" t="n">
-        <v>0.533333957195282</v>
+        <v>0.5803061127662659</v>
       </c>
       <c r="H16" t="n">
-        <v>1.806370496749878</v>
+        <v>1.621530771255493</v>
       </c>
       <c r="I16" t="n">
-        <v>0.690831184387207</v>
+        <v>2.054778099060059</v>
       </c>
       <c r="J16" t="n">
-        <v>1.94301438331604</v>
+        <v>1.474157452583313</v>
       </c>
       <c r="K16" t="n">
-        <v>1.316922664642334</v>
+        <v>1.76446795463562</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_2</t>
+          <t>model_2_0_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.872397105601319</v>
+        <v>0.8637730027597867</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7228000387115827</v>
+        <v>0.7557872143383785</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1505178718479938</v>
+        <v>-20.44048146411137</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4313061433720071</v>
+        <v>0.838419205754773</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3618896845340867</v>
+        <v>0.6328415620031966</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5355220437049866</v>
+        <v>0.5717155933380127</v>
       </c>
       <c r="H17" t="n">
-        <v>1.853637456893921</v>
+        <v>1.633052110671997</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6462790369987488</v>
+        <v>2.007439613342285</v>
       </c>
       <c r="J17" t="n">
-        <v>1.836510419845581</v>
+        <v>1.444760203361511</v>
       </c>
       <c r="K17" t="n">
-        <v>1.241394639015198</v>
+        <v>1.726099967956543</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_2_0_1</t>
+          <t>model_2_0_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8705010646992575</v>
+        <v>0.8658116088029979</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7142816389710029</v>
+        <v>0.7537329662045954</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.06859672981820597</v>
+        <v>-19.89125611137004</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4647209315631414</v>
+        <v>0.8418331724529353</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4014505970213806</v>
+        <v>0.6415571997879128</v>
       </c>
       <c r="G18" t="n">
-        <v>0.543479323387146</v>
+        <v>0.5631599426269531</v>
       </c>
       <c r="H18" t="n">
-        <v>1.910600066184998</v>
+        <v>1.646788835525513</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6002615690231323</v>
+        <v>1.956016421318054</v>
       </c>
       <c r="J18" t="n">
-        <v>1.728602409362793</v>
+        <v>1.414234399795532</v>
       </c>
       <c r="K18" t="n">
-        <v>1.164432048797607</v>
+        <v>1.685125589370728</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
+          <t>model_2_0_7</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8677844912629433</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7512769675022122</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-19.29657025670063</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8453291792701467</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.6508036346363033</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.5548802018165588</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.663212180137634</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.900336980819702</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.382975220680237</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.641655921936035</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>model_2_0_6</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8696139617304179</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.748332594088273</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-18.65512617451403</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8488437333571014</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.6605332354250668</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.5472022891044617</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.68290114402771</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.840279579162598</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.351550221443176</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.595914721488953</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>model_2_0_5</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8711965495667422</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7447932898181624</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-17.96639476391239</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8522879238931007</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.6706668039564969</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.5405604839324951</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.706568479537964</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.775794506072998</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.320754289627075</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.548274517059326</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>model_2_0_4</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8723953216709355</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7405274651462552</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-17.23101143934441</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8555396306245558</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.6810818564636199</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.5355295538902283</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.73509407043457</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.706941843032837</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.291679501533508</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.499310731887817</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>model_2_0_3</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8730309825501843</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7353722496714656</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-16.45110780341954</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8584336342376115</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.6916001396512188</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.5328617691993713</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.769567012786865</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.633920669555664</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.265802979469299</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.449861764907837</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_2_0_2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8728693098461696</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7291256210010193</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-15.63098780427441</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8607478918285004</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.7019674960577558</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.5335403084754944</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.811338186264038</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.557134032249451</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.245110273361206</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.401122331619263</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_2_0_1</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8716057838499333</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7215358708043331</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-14.77785967572294</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8621865703409767</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.711830961939639</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.538843035697937</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.862090945243835</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.477257013320923</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.232246398925781</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.354751825332642</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
           <t>model_2_0_0</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>0.8667653988579644</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.7039962850550743</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.0145157106616961</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.4979091060093024</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.4409954132745976</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.559157133102417</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1.979378223419189</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.5535749197006226</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.621426343917847</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.08750057220459</v>
+      <c r="B26" t="n">
+        <v>0.8688449060751807</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7122886889781739</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-13.90293726925004</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8623559578117548</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.7207043887406345</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.5504298210144043</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.923926949501038</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.395339250564575</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.230731844902039</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.313035726547241</v>
       </c>
     </row>
   </sheetData>
